--- a/branches/apply-cardinality-fixes/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/apply-cardinality-fixes/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:05:10+00:00</t>
+    <t>2023-03-03T13:27:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5931,7 +5931,7 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6723,13 +6723,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -6957,7 +6957,7 @@
         <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7301,7 +7301,7 @@
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -8219,7 +8219,7 @@
         <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8677,7 +8677,7 @@
         <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>

--- a/branches/apply-cardinality-fixes/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/apply-cardinality-fixes/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:27:32+00:00</t>
+    <t>2023-03-03T13:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/apply-cardinality-fixes/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/apply-cardinality-fixes/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:45:50+00:00</t>
+    <t>2023-03-03T13:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
